--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.070299999999995</v>
+        <v>-7.080899999999993</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.7734</v>
+        <v>-13.43939999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.28500000000001</v>
+        <v>-22.3347</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.26589999999999</v>
+        <v>-21.62259999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.30039999999999</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.58940000000002</v>
+        <v>-21.52630000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.81630000000002</v>
+        <v>18.0068</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.10460000000001</v>
+        <v>16.37790000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.6697</v>
+        <v>16.81250000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.01579999999998</v>
+        <v>-14.35579999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.14140000000001</v>
+        <v>-21.9439</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.07509999999999</v>
+        <v>-12.7364</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.052799999999998</v>
+        <v>-7.912599999999995</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.065099999999994</v>
+        <v>-8.807799999999993</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.5561</v>
+        <v>-12.45789999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.647200000000003</v>
+        <v>-8.512400000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.53740000000001</v>
+        <v>-11.83700000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.22210000000001</v>
+        <v>17.28940000000001</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.19569999999999</v>
+        <v>-12.9142</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.9879</v>
+        <v>-12.52739999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.633800000000001</v>
+        <v>-9.079200000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>15.9175</v>
+        <v>16.122</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.57319999999999</v>
+        <v>16.6406</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.77040000000001</v>
+        <v>-20.78200000000001</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.233700000000002</v>
+        <v>-8.4308</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.5592</v>
+        <v>-13.26440000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.119899999999991</v>
+        <v>-8.748299999999995</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.527</v>
+        <v>17.5448</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.799799999999999</v>
+        <v>-7.545599999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.6128</v>
+        <v>-7.513100000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.55500000000001</v>
+        <v>17.60900000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.85449999999999</v>
+        <v>15.88999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.60709999999999</v>
+        <v>-13.6079</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.38499999999999</v>
+        <v>16.51329999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.0459</v>
+        <v>-22.419</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.04290000000001</v>
+        <v>16.2532</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.123999999999997</v>
+        <v>-8.206399999999995</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.892100000000002</v>
+        <v>-7.764299999999997</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.65899999999999</v>
+        <v>-21.676</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.7981</v>
+        <v>-11.6077</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.59360000000002</v>
+        <v>17.65750000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.361899999999995</v>
+        <v>-7.677499999999998</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.3151</v>
+        <v>-12.2746</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.06039999999999</v>
+        <v>-21.27469999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.65689999999998</v>
+        <v>-20.89649999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.12480000000001</v>
+        <v>-21.9277</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.04769999999999</v>
+        <v>16.40699999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.87</v>
+        <v>-21.93770000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.29149999999999</v>
+        <v>-13.87699999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.36959999999999</v>
+        <v>-13.23409999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.034500000000003</v>
+        <v>-8.160700000000004</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.36050000000001</v>
+        <v>18.38230000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.6906</v>
+        <v>-6.766499999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.758099999999996</v>
+        <v>-7.8686</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.42480000000001</v>
+        <v>-12.62310000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.09349999999999</v>
+        <v>-12.1777</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.22000000000001</v>
+        <v>-13.61180000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.328399999999998</v>
+        <v>-8.132999999999994</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1617</v>
+        <v>-12.94970000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
